--- a/Multi-taxa_data/PLITs/1-Extraction/PLIT_ZP.xlsx
+++ b/Multi-taxa_data/PLITs/1-Extraction/PLIT_ZP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\StatAnalysis\Multi-taxa_data\PLITs\extraction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\StatAnalysis\Multi-taxa_data\PLITs\1-Extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E7FF22-5BD9-42D7-AF7F-63F5B49A215C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6F8883-2080-41A7-96AB-C1033B371137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="D1" sheetId="5" r:id="rId1"/>
@@ -22,6 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'D2'!$A$4:$U$147</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'S1'!$A$4:$U$233</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'S2'!$A$4:$U$304</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'S3'!$A$4:$U$313</definedName>
   </definedNames>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4097" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4098" uniqueCount="744">
   <si>
     <t>D1</t>
   </si>
@@ -13705,11 +13706,11 @@
   </sheetPr>
   <dimension ref="A1:U235"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E165" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="4" topLeftCell="E221" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="B235" sqref="B235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -17368,7 +17369,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>2313</v>
       </c>
@@ -17386,7 +17387,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>2316</v>
       </c>
@@ -17394,7 +17395,7 @@
         <v>8</v>
       </c>
       <c r="C198" s="6">
-        <f t="shared" ref="C198:C231" si="3">A199-A198</f>
+        <f t="shared" ref="C198:C233" si="3">A199-A198</f>
         <v>3</v>
       </c>
       <c r="D198" s="6"/>
@@ -17402,7 +17403,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>2319</v>
       </c>
@@ -17420,7 +17421,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>2323</v>
       </c>
@@ -17436,7 +17437,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>2328</v>
       </c>
@@ -17454,7 +17455,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>2330</v>
       </c>
@@ -17475,7 +17476,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>2387</v>
       </c>
@@ -17493,7 +17494,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>2402</v>
       </c>
@@ -17511,7 +17512,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>2405</v>
       </c>
@@ -17529,7 +17530,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>2410</v>
       </c>
@@ -17547,7 +17548,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>2414</v>
       </c>
@@ -17565,7 +17566,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>2418</v>
       </c>
@@ -17583,7 +17584,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>2421</v>
       </c>
@@ -17601,7 +17602,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>2427</v>
       </c>
@@ -17619,7 +17620,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>2429</v>
       </c>
@@ -17637,7 +17638,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>2436</v>
       </c>
@@ -17655,7 +17656,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>2448</v>
       </c>
@@ -17673,7 +17674,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>2451</v>
       </c>
@@ -17691,7 +17692,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>2456</v>
       </c>
@@ -17709,7 +17710,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>2460</v>
       </c>
@@ -17727,7 +17728,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>2466</v>
       </c>
@@ -17743,7 +17744,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>2472</v>
       </c>
@@ -17761,7 +17762,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>2481</v>
       </c>
@@ -17780,7 +17781,7 @@
       </c>
       <c r="L219" s="6"/>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>2492</v>
       </c>
@@ -17798,7 +17799,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>2497</v>
       </c>
@@ -17816,7 +17817,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>2500</v>
       </c>
@@ -17834,7 +17835,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>2503</v>
       </c>
@@ -17852,7 +17853,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>2509</v>
       </c>
@@ -17870,7 +17871,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>2518</v>
       </c>
@@ -17888,7 +17889,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>2526</v>
       </c>
@@ -17906,7 +17907,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A227" s="6">
         <v>2535</v>
       </c>
@@ -17924,7 +17925,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>2541</v>
       </c>
@@ -17942,7 +17943,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>2550</v>
       </c>
@@ -17960,7 +17961,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>2554</v>
       </c>
@@ -17978,7 +17979,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>2560</v>
       </c>
@@ -17996,36 +17997,48 @@
         <v>156</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>2573</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C232" s="6"/>
-      <c r="D232" s="1" t="s">
-        <v>36</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C232" s="6">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="D232" s="1"/>
       <c r="K232" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A233" s="6"/>
-      <c r="B233" s="1"/>
-      <c r="C233" s="6"/>
-      <c r="D233" s="6"/>
+    <row r="233" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A233" s="1">
+        <v>2576</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C233" s="6">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="K233" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A234" s="6"/>
+    <row r="234" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A234" s="1">
+        <v>2583</v>
+      </c>
       <c r="C234" s="6"/>
       <c r="K234" s="6"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A235" s="6"/>
     </row>
   </sheetData>
@@ -18040,7 +18053,7 @@
   </sheetPr>
   <dimension ref="A1:U304"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="87" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="H8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
